--- a/output/zaluski/2024/sheets/year_2024.xlsx
+++ b/output/zaluski/2024/sheets/year_2024.xlsx
@@ -481,55 +481,47 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>01</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>67.32903225806453</v>
+        <v>67.46872191469295</v>
       </c>
       <c r="C2" t="n">
-        <v>60.05483870967742</v>
+        <v>61.00899810233369</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>02</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>56.75862068965517</v>
+        <v>68.72547628907073</v>
       </c>
       <c r="C3" t="n">
-        <v>50.97931034482759</v>
+        <v>62.8207041500837</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>03</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>69.32580645161291</v>
+        <v>69.38655205265457</v>
       </c>
       <c r="C4" t="n">
-        <v>62.75161290322582</v>
+        <v>63.25195924673282</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>04</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>68.91333333333333</v>
+        <v>68.997763261223</v>
       </c>
       <c r="C5" t="n">
-        <v>59.79666666666666</v>
+        <v>62.24949114464288</v>
       </c>
     </row>
   </sheetData>
